--- a/MesAdmin/Template/DuCar/处理方式基础信息.xlsx
+++ b/MesAdmin/Template/DuCar/处理方式基础信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="237">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,18 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处理方式名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,14 +32,993 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操纵杆轴承未压装到位</t>
-  </si>
-  <si>
-    <t>处理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP030</t>
+  </si>
+  <si>
+    <t>PA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP010</t>
+  </si>
+  <si>
+    <t>电芯盒内电芯极性放反</t>
+  </si>
+  <si>
+    <t>人工把电芯盒内电芯安装正确的方式从新摆放</t>
+  </si>
+  <si>
+    <t>OP020</t>
+  </si>
+  <si>
+    <t>电芯上料抓取时单排未抓取完</t>
+  </si>
+  <si>
+    <t>调整电芯抓料气缸位置</t>
+  </si>
+  <si>
+    <t>PA01</t>
+  </si>
+  <si>
+    <t>电芯未喷码</t>
+  </si>
+  <si>
+    <t>检查喷码机</t>
+  </si>
+  <si>
+    <t>电芯没有扫码成功</t>
+  </si>
+  <si>
+    <t>检查扫码枪</t>
+  </si>
+  <si>
+    <t>电芯OCV测试异常</t>
+  </si>
+  <si>
+    <t>更换OCV测试探针</t>
+  </si>
+  <si>
+    <t>电芯分档缓存时通道不正确</t>
+  </si>
+  <si>
+    <t>从新设置分档参数</t>
+  </si>
+  <si>
+    <t>电芯冲贴青稞纸歪斜</t>
+  </si>
+  <si>
+    <t>调整冲贴膜具位置</t>
+  </si>
+  <si>
+    <t>青稞纸粘性太强</t>
+  </si>
+  <si>
+    <t>更换青稞纸</t>
+  </si>
+  <si>
+    <t>CCD电芯漏贴未检查到</t>
+  </si>
+  <si>
+    <t>检查CCD视觉系统</t>
+  </si>
+  <si>
+    <t>OP040</t>
+  </si>
+  <si>
+    <t>镍片尺寸不对</t>
+  </si>
+  <si>
+    <t>更换镍片</t>
+  </si>
+  <si>
+    <t>镍片不能粘贴在治具上</t>
+  </si>
+  <si>
+    <t>将治具上磁铁更换</t>
+  </si>
+  <si>
+    <t>OP050</t>
+  </si>
+  <si>
+    <t>CCD镍片位置未检查到</t>
+  </si>
+  <si>
+    <t>OP060</t>
+  </si>
+  <si>
+    <t>下支架无法放进料仓</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的下支架</t>
+  </si>
+  <si>
+    <t>机器人抓取不到下支架</t>
+  </si>
+  <si>
+    <t>调整机器人抓取位置</t>
+  </si>
+  <si>
+    <t>镭雕下支架SN码不正确</t>
+  </si>
+  <si>
+    <t>检查镭雕机</t>
+  </si>
+  <si>
+    <t>OP070</t>
+  </si>
+  <si>
+    <t>电芯入支架位置异常</t>
+  </si>
+  <si>
+    <t>调整电芯入支架位置参数</t>
+  </si>
+  <si>
+    <t>电芯入支架电芯数量不正确</t>
+  </si>
+  <si>
+    <t>调整电芯入支架配方参数</t>
+  </si>
+  <si>
+    <t>OP080</t>
+  </si>
+  <si>
+    <t>CCD电芯极性未检查到</t>
+  </si>
+  <si>
+    <t>人工盖上支架时未盖到位</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的上支架</t>
+  </si>
+  <si>
+    <t>OP090</t>
+  </si>
+  <si>
+    <t>上下支架紧固未到位</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺钉</t>
+  </si>
+  <si>
+    <t>调整拧紧枪扭力</t>
+  </si>
+  <si>
+    <t>OP100</t>
+  </si>
+  <si>
+    <t>自动盖上治具治具未盖到位</t>
+  </si>
+  <si>
+    <t>调整机械手位置参数</t>
+  </si>
+  <si>
+    <t>OP110</t>
+  </si>
+  <si>
+    <t>电阻焊接A面1出现虚焊漏焊炸焊现象</t>
+  </si>
+  <si>
+    <t>调整点焊电源参数</t>
+  </si>
+  <si>
+    <t>电阻焊接A面1出现焊接不上现象</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的镍片</t>
+  </si>
+  <si>
+    <t>OP120</t>
+  </si>
+  <si>
+    <t>电阻焊接A面2出现虚焊漏焊炸焊现象</t>
+  </si>
+  <si>
+    <t>电阻焊接A面2出现焊接不上现象</t>
+  </si>
+  <si>
+    <t>OP130</t>
+  </si>
+  <si>
+    <t>A面焊点CCD未检查到</t>
+  </si>
+  <si>
+    <t>焊接治具翻转治具掉落</t>
+  </si>
+  <si>
+    <t>调整机械手夹紧位置参数</t>
+  </si>
+  <si>
+    <t>OP140</t>
+  </si>
+  <si>
+    <t>电阻焊接B面1出现虚焊漏焊炸焊现象</t>
+  </si>
+  <si>
+    <t>电阻焊接B面1出现焊接不上现象</t>
+  </si>
+  <si>
+    <t>OP150</t>
+  </si>
+  <si>
+    <t>电阻焊接B面2出现虚焊漏焊炸焊现象</t>
+  </si>
+  <si>
+    <t>电阻焊接B面2出现焊接不上现象</t>
+  </si>
+  <si>
+    <t>OP160</t>
+  </si>
+  <si>
+    <t>B面焊点CCD未检查到</t>
+  </si>
+  <si>
+    <t>自动拆治具治具未拆卸完成</t>
+  </si>
+  <si>
+    <t>调整拆卸机械手位置</t>
+  </si>
+  <si>
+    <t>模组转线时损坏电池包</t>
+  </si>
+  <si>
+    <t>调整电池包夹紧机械手位置</t>
+  </si>
+  <si>
+    <t>模组转线时电池包未转线到Pack段</t>
+  </si>
+  <si>
+    <t>调整电池包转线机械手转线位置</t>
+  </si>
+  <si>
+    <t>OP180</t>
+  </si>
+  <si>
+    <t>贴电池包两端绝缘纸时位置没有粘贴到位</t>
+  </si>
+  <si>
+    <t>调整机械人移动位置</t>
+  </si>
+  <si>
+    <t>贴电池包两端绝缘纸时绝缘纸没有把背胶撕掉</t>
+  </si>
+  <si>
+    <t>调整青稞纸撕膜吸附大小</t>
+  </si>
+  <si>
+    <t>绝缘纸来料不对</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的绝缘纸</t>
+  </si>
+  <si>
+    <t>OP190</t>
+  </si>
+  <si>
+    <t>OP200</t>
+  </si>
+  <si>
+    <t>模组翻转时翻转角度未到位</t>
+  </si>
+  <si>
+    <t>调整模组翻转角度参数</t>
+  </si>
+  <si>
+    <t>模组堆叠时堆叠未到位</t>
+  </si>
+  <si>
+    <t>调整模组堆叠位置参数</t>
+  </si>
+  <si>
+    <t>OP210</t>
+  </si>
+  <si>
+    <t>人工上螺栓螺母时螺栓螺母规格不对</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺栓螺母</t>
+  </si>
+  <si>
+    <t>OP220</t>
+  </si>
+  <si>
+    <t>模组紧固未到位</t>
+  </si>
+  <si>
+    <t>模组紧固螺栓圆角</t>
+  </si>
+  <si>
+    <t>模组紧固时电批头对不准螺栓头</t>
+  </si>
+  <si>
+    <t>调整拧紧枪位置</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>BMS板测试1测试异常</t>
+  </si>
+  <si>
+    <t>调整测试参数，检查模组BMS板</t>
+  </si>
+  <si>
+    <t>BMS板测试1测试时探针不能探测到BMS点位上</t>
+  </si>
+  <si>
+    <t>人工将多余的三防漆刮掉</t>
+  </si>
+  <si>
+    <t>BMS板上有锡珠</t>
+  </si>
+  <si>
+    <t>人工将锡珠去掉</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>BMS板测试2测试异常</t>
+  </si>
+  <si>
+    <t>BMS板测试2测试时探针不能探测到BMS点位上</t>
+  </si>
+  <si>
+    <t>OP230</t>
+  </si>
+  <si>
+    <t>BMS板线束不正确</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的线束</t>
+  </si>
+  <si>
+    <t>OP240</t>
+  </si>
+  <si>
+    <t>人工安装BMS板时未安装到位</t>
+  </si>
+  <si>
+    <t>人工安装BMS板时螺钉型号规格不正确</t>
+  </si>
+  <si>
+    <t>OP250</t>
+  </si>
+  <si>
+    <t>电池包线束规格不正确</t>
+  </si>
+  <si>
+    <t>OP260</t>
+  </si>
+  <si>
+    <t>胶黏度不够</t>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的黄胶</t>
+  </si>
+  <si>
+    <t>OP270</t>
+  </si>
+  <si>
+    <t>人工插测试线时端子头子插接不上</t>
+  </si>
+  <si>
+    <t>更换接插端子</t>
+  </si>
+  <si>
+    <t>半成品测试测试异常</t>
+  </si>
+  <si>
+    <t>PA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电芯没有扫码成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查扫码枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电芯未喷码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查喷码机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电芯没有扫码成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换OCV测试探针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新设置分档参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电芯冲贴青稞纸歪斜CCD电芯漏贴未检查到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整冲贴膜具位置更换青稞纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镍片尺寸不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换镍片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查CCD视觉系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的下支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查镭雕机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的上支架调整机器人支架下放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整拧紧枪扭力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整机械手位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整点焊电源参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的镍片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整机械手夹紧位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整点焊电源参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的镍片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查CCD视觉系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整拆卸机械手位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴电池包两端绝缘纸时位置没有粘贴到位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整机械人移动位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴电池包两端绝缘纸时绝缘纸没有把背胶撕掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整青稞纸撕膜吸附大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的绝缘纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整模组翻转角度参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整模组堆叠位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺栓螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整拧紧枪扭力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺栓螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整拧紧枪位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的线束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整拧紧枪扭力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的螺钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料不对更换与产品对应的黄胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整测试参数，检查模组BMS板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化测试异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整测试参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type-c无输出</t>
+  </si>
+  <si>
+    <t>L7电感无输出，更换电感</t>
+  </si>
+  <si>
+    <t>开AC显示F001</t>
+  </si>
+  <si>
+    <t>C96电容断裂，导致3.3V电压无法正常给单片机供电；更换C96电容</t>
+  </si>
+  <si>
+    <t>OP130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC1芯片击穿、后级小板单片机3.3V倒地；更换IC1、单片机。</t>
+  </si>
+  <si>
+    <t>AC不能短路</t>
+  </si>
+  <si>
+    <t>RS6334芯片损坏导致电压检测不准确，功率板无法启动；更换RS6334</t>
+  </si>
+  <si>
+    <t>后小板电压比较芯片U1虚焊;补焊</t>
+  </si>
+  <si>
+    <t>OP170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电时显示百分比一直显示100%</t>
+  </si>
+  <si>
+    <t>寄存器U14击穿导致电源检测无法实时显示；更换U14寄存器</t>
+  </si>
+  <si>
+    <t>风扇开启无显示图标</t>
+  </si>
+  <si>
+    <t>U2驱动芯片虚焊，导致风扇启动信号无法传递；补焊。</t>
+  </si>
+  <si>
+    <t>调整机器人支架下放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下支架摆放在工装治具上位置不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整电芯入支架位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电芯入支架位置异常电芯入支架电芯数量不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电F001,再次放电F004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风扇端子内PIN未顶到位，导致风扇启动时间过长，散热不及时；重新插上风扇线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +1026,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +1036,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -110,13 +1085,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -421,81 +1404,1852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E122" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
